--- a/data/league_data/france/21/france_passing.xlsx
+++ b/data/league_data/france/21/france_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB978C4-6987-444C-8952-6CD2B325E085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124D75B-B48B-214C-AADE-695575E9533A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,9 +319,6 @@
     <t>Leo Dubois</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1832,6 +1829,9 @@
   </si>
   <si>
     <t>Dion Moise Sahi</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6328,10 +6328,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>31</v>
@@ -6420,7 +6420,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>25</v>
@@ -6512,7 +6512,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>96</v>
@@ -6604,7 +6604,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>48</v>
@@ -6696,7 +6696,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>25</v>
@@ -6788,7 +6788,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>66</v>
@@ -6880,7 +6880,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>25</v>
@@ -6972,7 +6972,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>25</v>
@@ -7064,7 +7064,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>25</v>
@@ -7156,7 +7156,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>25</v>
@@ -7248,10 +7248,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>31</v>
@@ -7340,7 +7340,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>25</v>
@@ -7432,7 +7432,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>72</v>
@@ -7524,10 +7524,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>31</v>
@@ -7616,10 +7616,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>81</v>
@@ -7708,7 +7708,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>25</v>
@@ -7800,7 +7800,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>25</v>
@@ -7892,7 +7892,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -7984,7 +7984,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>25</v>
@@ -8076,10 +8076,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>62</v>
@@ -8168,7 +8168,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>25</v>
@@ -8260,7 +8260,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>25</v>
@@ -8352,7 +8352,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>72</v>
@@ -8444,7 +8444,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>25</v>
@@ -8536,7 +8536,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>30</v>
@@ -8628,7 +8628,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>25</v>
@@ -8720,7 +8720,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>86</v>
@@ -8812,7 +8812,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>25</v>
@@ -8904,10 +8904,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>81</v>
@@ -8996,10 +8996,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>22</v>
@@ -9088,10 +9088,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>62</v>
@@ -9180,7 +9180,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>25</v>
@@ -9272,13 +9272,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>34</v>
@@ -9364,10 +9364,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>31</v>
@@ -9456,7 +9456,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>25</v>
@@ -9548,7 +9548,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>84</v>
@@ -9640,7 +9640,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>25</v>
@@ -9732,7 +9732,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>25</v>
@@ -9824,7 +9824,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>25</v>
@@ -9916,7 +9916,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>25</v>
@@ -10008,7 +10008,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>48</v>
@@ -10100,7 +10100,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>30</v>
@@ -10192,7 +10192,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>86</v>
@@ -10284,7 +10284,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>25</v>
@@ -10376,10 +10376,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>74</v>
@@ -10468,7 +10468,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>25</v>
@@ -10560,7 +10560,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>25</v>
@@ -10652,7 +10652,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>25</v>
@@ -10744,13 +10744,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>90</v>
@@ -10836,7 +10836,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>25</v>
@@ -10928,7 +10928,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>25</v>
@@ -11020,7 +11020,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>25</v>
@@ -11112,16 +11112,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F92" s="4">
         <v>33</v>
@@ -11204,10 +11204,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>62</v>
@@ -11296,10 +11296,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>31</v>
@@ -11388,7 +11388,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>72</v>
@@ -11480,7 +11480,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>25</v>
@@ -11572,13 +11572,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>37</v>
@@ -11664,13 +11664,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>58</v>
@@ -11756,10 +11756,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>74</v>
@@ -11848,7 +11848,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>25</v>
@@ -11940,7 +11940,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>25</v>
@@ -12032,7 +12032,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>25</v>
@@ -12124,7 +12124,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>25</v>
@@ -12216,7 +12216,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>25</v>
@@ -12308,7 +12308,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>25</v>
@@ -12400,10 +12400,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>77</v>
@@ -12492,10 +12492,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>31</v>
@@ -12584,10 +12584,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>31</v>
@@ -12676,7 +12676,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>25</v>
@@ -12768,7 +12768,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>25</v>
@@ -12777,7 +12777,7 @@
         <v>81</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F110" s="4">
         <v>21</v>
@@ -12860,10 +12860,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>31</v>
@@ -12952,10 +12952,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>81</v>
@@ -13044,7 +13044,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>25</v>
@@ -13136,10 +13136,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>31</v>
@@ -13228,7 +13228,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>96</v>
@@ -13320,10 +13320,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>62</v>
@@ -13412,7 +13412,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>48</v>
@@ -13504,7 +13504,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>86</v>
@@ -13596,7 +13596,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>25</v>
@@ -13688,7 +13688,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>25</v>
@@ -13697,7 +13697,7 @@
         <v>31</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F120" s="4">
         <v>24</v>
@@ -13780,7 +13780,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>25</v>
@@ -13872,10 +13872,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>31</v>
@@ -13964,7 +13964,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>25</v>
@@ -14056,10 +14056,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>77</v>
@@ -14148,10 +14148,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>74</v>
@@ -14240,10 +14240,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>31</v>
@@ -14332,10 +14332,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>74</v>
@@ -14424,7 +14424,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>25</v>
@@ -14516,7 +14516,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>25</v>
@@ -14608,13 +14608,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="D130" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>92</v>
@@ -14700,10 +14700,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>74</v>
@@ -14792,10 +14792,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>74</v>
@@ -14884,7 +14884,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>60</v>
@@ -14976,13 +14976,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>75</v>
@@ -15068,7 +15068,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>86</v>
@@ -15160,7 +15160,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>25</v>
@@ -15252,7 +15252,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>25</v>
@@ -15344,7 +15344,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>25</v>
@@ -15436,7 +15436,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>25</v>
@@ -15528,7 +15528,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>25</v>
@@ -15620,10 +15620,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>31</v>
@@ -15712,7 +15712,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>25</v>
@@ -15804,10 +15804,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>22</v>
@@ -15896,10 +15896,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>81</v>
@@ -15988,7 +15988,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>86</v>
@@ -16080,7 +16080,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>25</v>
@@ -16172,7 +16172,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>84</v>
@@ -16264,10 +16264,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>31</v>
@@ -16356,16 +16356,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F149" s="4">
         <v>26</v>
@@ -16448,10 +16448,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>31</v>
@@ -16540,7 +16540,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>25</v>
@@ -16632,7 +16632,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>25</v>
@@ -16724,10 +16724,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>31</v>
@@ -16816,7 +16816,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>25</v>
@@ -16908,7 +16908,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>25</v>
@@ -17000,10 +17000,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>81</v>
@@ -17092,7 +17092,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>25</v>
@@ -17184,7 +17184,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>25</v>
@@ -17276,7 +17276,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>25</v>
@@ -17368,7 +17368,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>25</v>
@@ -17460,10 +17460,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>81</v>
@@ -17552,10 +17552,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>74</v>
@@ -17644,7 +17644,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>25</v>
@@ -17736,10 +17736,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>62</v>
@@ -17828,10 +17828,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>31</v>
@@ -17920,7 +17920,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>25</v>
@@ -18012,7 +18012,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>25</v>
@@ -18104,7 +18104,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>25</v>
@@ -18196,7 +18196,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>25</v>
@@ -18288,10 +18288,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>81</v>
@@ -18380,7 +18380,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>21</v>
@@ -18472,7 +18472,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>96</v>
@@ -18564,7 +18564,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>25</v>
@@ -18656,7 +18656,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>84</v>
@@ -18748,13 +18748,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>67</v>
@@ -18840,10 +18840,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>31</v>
@@ -18932,7 +18932,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>84</v>
@@ -19024,7 +19024,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>25</v>
@@ -19116,10 +19116,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>81</v>
@@ -19208,10 +19208,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>55</v>
@@ -19300,7 +19300,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>25</v>
@@ -19392,7 +19392,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>25</v>
@@ -19484,10 +19484,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>22</v>
@@ -19576,7 +19576,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>25</v>
@@ -19668,7 +19668,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>25</v>
@@ -19760,7 +19760,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>21</v>
@@ -19769,7 +19769,7 @@
         <v>62</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F186" s="4">
         <v>32</v>
@@ -19852,16 +19852,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F187" s="4">
         <v>30</v>
@@ -19944,7 +19944,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>25</v>
@@ -20036,7 +20036,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>25</v>
@@ -20128,7 +20128,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>25</v>
@@ -20220,10 +20220,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>77</v>
@@ -20312,10 +20312,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>31</v>
@@ -20404,7 +20404,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>25</v>
@@ -20496,7 +20496,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>25</v>
@@ -20588,7 +20588,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>25</v>
@@ -20680,7 +20680,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>36</v>
@@ -20772,7 +20772,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>25</v>
@@ -20864,7 +20864,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>25</v>
@@ -20956,7 +20956,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>25</v>
@@ -21048,7 +21048,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>25</v>
@@ -21140,7 +21140,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>25</v>
@@ -21232,10 +21232,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>74</v>
@@ -21324,7 +21324,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>96</v>
@@ -21416,7 +21416,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>25</v>
@@ -21508,7 +21508,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>72</v>
@@ -21600,7 +21600,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>25</v>
@@ -21692,7 +21692,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>25</v>
@@ -21784,7 +21784,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>25</v>
@@ -21876,16 +21876,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F209" s="4">
         <v>20</v>
@@ -21968,7 +21968,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>84</v>
@@ -22060,7 +22060,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>51</v>
@@ -22069,7 +22069,7 @@
         <v>31</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F211" s="4">
         <v>20</v>
@@ -22152,7 +22152,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>84</v>
@@ -22244,7 +22244,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>25</v>
@@ -22336,7 +22336,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>25</v>
@@ -22428,7 +22428,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>86</v>
@@ -22520,10 +22520,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>74</v>
@@ -22612,7 +22612,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>21</v>
@@ -22704,7 +22704,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>25</v>
@@ -22796,7 +22796,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>25</v>
@@ -22888,7 +22888,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>36</v>
@@ -22980,10 +22980,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>81</v>
@@ -23072,7 +23072,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>66</v>
@@ -23164,16 +23164,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F223" s="4">
         <v>23</v>
@@ -23256,7 +23256,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>25</v>
@@ -23348,10 +23348,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>55</v>
@@ -23440,7 +23440,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>25</v>
@@ -23532,7 +23532,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>25</v>
@@ -23624,7 +23624,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>96</v>
@@ -23716,10 +23716,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>31</v>
@@ -23808,7 +23808,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>96</v>
@@ -23817,7 +23817,7 @@
         <v>74</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F230" s="4">
         <v>30</v>
@@ -23900,7 +23900,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>21</v>
@@ -23992,7 +23992,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>25</v>
@@ -24084,7 +24084,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>25</v>
@@ -24176,10 +24176,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>31</v>
@@ -24268,10 +24268,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>74</v>
@@ -24360,7 +24360,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>36</v>
@@ -24452,16 +24452,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F237" s="4">
         <v>29</v>
@@ -24544,7 +24544,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>25</v>
@@ -24636,7 +24636,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>25</v>
@@ -24728,7 +24728,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>25</v>
@@ -24820,10 +24820,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>31</v>
@@ -24912,10 +24912,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>74</v>
@@ -25004,7 +25004,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>96</v>
@@ -25013,7 +25013,7 @@
         <v>31</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F243" s="4">
         <v>24</v>
@@ -25096,7 +25096,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>25</v>
@@ -25188,16 +25188,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F245" s="4">
         <v>27</v>
@@ -25280,7 +25280,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>25</v>
@@ -25372,10 +25372,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>31</v>
@@ -25464,10 +25464,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>31</v>
@@ -25556,7 +25556,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>36</v>
@@ -25648,7 +25648,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>96</v>
@@ -25740,10 +25740,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>31</v>
@@ -25832,7 +25832,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>25</v>
@@ -25924,7 +25924,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>36</v>
@@ -25933,7 +25933,7 @@
         <v>55</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F253" s="4">
         <v>28</v>
@@ -26016,16 +26016,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F254" s="4">
         <v>28</v>
@@ -26108,10 +26108,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>31</v>
@@ -26200,7 +26200,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>25</v>
@@ -26292,7 +26292,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>25</v>
@@ -26384,7 +26384,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>25</v>
@@ -26476,7 +26476,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>25</v>
@@ -26485,7 +26485,7 @@
         <v>31</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F259" s="4">
         <v>21</v>
@@ -26568,16 +26568,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F260" s="4">
         <v>27</v>
@@ -26660,7 +26660,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>86</v>
@@ -26752,7 +26752,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>25</v>
@@ -26844,7 +26844,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>25</v>
@@ -26936,7 +26936,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>25</v>
@@ -27028,7 +27028,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>25</v>
@@ -27120,7 +27120,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>72</v>
@@ -27212,7 +27212,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>25</v>
@@ -27304,16 +27304,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F268" s="4">
         <v>28</v>
@@ -27396,7 +27396,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>25</v>
@@ -27488,10 +27488,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>31</v>
@@ -27580,10 +27580,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>81</v>
@@ -27672,7 +27672,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>21</v>
@@ -27681,7 +27681,7 @@
         <v>74</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F272" s="4">
         <v>26</v>
@@ -27764,7 +27764,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>25</v>
@@ -27856,7 +27856,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>25</v>
@@ -27948,10 +27948,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>77</v>
@@ -28040,7 +28040,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>25</v>
@@ -28049,7 +28049,7 @@
         <v>31</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F276" s="4">
         <v>27</v>
@@ -28132,7 +28132,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>36</v>
@@ -28224,7 +28224,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>96</v>
@@ -28316,10 +28316,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>31</v>
@@ -28408,7 +28408,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>96</v>
@@ -28500,7 +28500,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>25</v>
@@ -28592,7 +28592,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>84</v>
@@ -28684,7 +28684,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>25</v>
@@ -28776,7 +28776,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>25</v>
@@ -28868,7 +28868,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>25</v>
@@ -28960,7 +28960,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>25</v>
@@ -29052,10 +29052,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>81</v>
@@ -29144,7 +29144,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>25</v>
@@ -29236,7 +29236,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>25</v>
@@ -29328,7 +29328,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>25</v>
@@ -29420,7 +29420,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>96</v>
@@ -29512,7 +29512,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>36</v>
@@ -29604,7 +29604,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>72</v>
@@ -29696,7 +29696,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>43</v>
@@ -29788,7 +29788,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>25</v>
@@ -29880,7 +29880,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>25</v>
@@ -29972,7 +29972,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>25</v>
@@ -30064,7 +30064,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>25</v>
@@ -30156,7 +30156,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>86</v>
@@ -30248,7 +30248,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>96</v>
@@ -30340,7 +30340,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>25</v>
@@ -30432,7 +30432,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>25</v>
@@ -30524,7 +30524,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>25</v>
@@ -30616,10 +30616,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>31</v>
@@ -30708,10 +30708,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>31</v>
@@ -30800,7 +30800,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>96</v>
@@ -30892,10 +30892,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>62</v>
@@ -30984,10 +30984,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>22</v>
@@ -31076,7 +31076,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>25</v>
@@ -31168,7 +31168,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>21</v>
@@ -31177,7 +31177,7 @@
         <v>81</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F310" s="4">
         <v>27</v>
@@ -31260,7 +31260,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>25</v>
@@ -31352,10 +31352,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>31</v>
@@ -31444,7 +31444,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>84</v>
@@ -31536,10 +31536,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>77</v>
@@ -31628,16 +31628,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F315" s="4">
         <v>26</v>
@@ -31720,7 +31720,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>25</v>
@@ -31812,10 +31812,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>31</v>
@@ -31904,7 +31904,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>86</v>
@@ -31996,7 +31996,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>25</v>
@@ -32088,7 +32088,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>25</v>
@@ -32180,7 +32180,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>25</v>
@@ -32272,7 +32272,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>48</v>
@@ -32364,10 +32364,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>74</v>
@@ -32456,7 +32456,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>96</v>
@@ -32548,10 +32548,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>31</v>
@@ -32640,7 +32640,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>84</v>
@@ -32732,7 +32732,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>25</v>
@@ -32824,10 +32824,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>62</v>
@@ -32916,10 +32916,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>81</v>
@@ -33008,10 +33008,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>62</v>
@@ -33100,13 +33100,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>23</v>
@@ -33192,7 +33192,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>25</v>
@@ -33284,7 +33284,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>25</v>
@@ -33376,7 +33376,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>25</v>
@@ -33468,7 +33468,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>25</v>
@@ -33560,7 +33560,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>25</v>
@@ -33652,7 +33652,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>25</v>
@@ -33744,7 +33744,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>25</v>
@@ -33836,10 +33836,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>74</v>
@@ -33928,7 +33928,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>84</v>
@@ -34020,10 +34020,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C341" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>62</v>
@@ -34112,7 +34112,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>36</v>
@@ -34204,10 +34204,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>74</v>
@@ -34296,7 +34296,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>25</v>
@@ -34388,7 +34388,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>25</v>
@@ -34480,7 +34480,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>25</v>
@@ -34572,7 +34572,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>86</v>
@@ -34664,7 +34664,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>25</v>
@@ -34756,7 +34756,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>25</v>
@@ -34848,7 +34848,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>25</v>
@@ -34940,7 +34940,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>25</v>
@@ -35032,10 +35032,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>22</v>
@@ -35124,16 +35124,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F353" s="4">
         <v>26</v>
@@ -35216,7 +35216,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>66</v>
@@ -35308,10 +35308,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C355" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>62</v>
@@ -35400,10 +35400,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>81</v>
@@ -35492,10 +35492,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>31</v>
@@ -35584,10 +35584,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>77</v>
@@ -35676,7 +35676,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>25</v>
@@ -35768,7 +35768,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>25</v>
@@ -35860,10 +35860,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C361" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>31</v>
@@ -35952,13 +35952,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>56</v>
@@ -36044,7 +36044,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>66</v>
@@ -36136,7 +36136,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>25</v>
@@ -36228,7 +36228,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>96</v>
@@ -36320,10 +36320,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>31</v>
@@ -36412,7 +36412,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>86</v>
@@ -36504,10 +36504,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>31</v>
@@ -36596,7 +36596,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -36688,10 +36688,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>77</v>
@@ -36780,7 +36780,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>25</v>
@@ -36872,13 +36872,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E372" s="4" t="s">
         <v>46</v>
@@ -36964,7 +36964,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>96</v>
@@ -37056,7 +37056,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>96</v>
@@ -37148,7 +37148,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>72</v>
@@ -37240,7 +37240,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>25</v>
@@ -37332,7 +37332,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>25</v>
@@ -37424,7 +37424,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>51</v>
@@ -37516,7 +37516,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>43</v>
@@ -37608,7 +37608,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>25</v>
@@ -37700,7 +37700,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>25</v>
@@ -37792,7 +37792,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>25</v>
@@ -37884,7 +37884,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -37976,7 +37976,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>72</v>
@@ -38068,7 +38068,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>25</v>
@@ -38160,7 +38160,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -38252,7 +38252,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>25</v>
@@ -38344,10 +38344,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C388" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>62</v>
@@ -38436,10 +38436,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>31</v>
@@ -38528,7 +38528,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>25</v>
@@ -38620,7 +38620,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>79</v>
@@ -38712,10 +38712,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>62</v>
@@ -38804,7 +38804,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>25</v>
@@ -38896,7 +38896,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>25</v>
@@ -38988,7 +38988,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>48</v>
@@ -39080,10 +39080,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C396" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>62</v>
@@ -39172,10 +39172,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>81</v>
@@ -39264,7 +39264,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>25</v>
@@ -39356,10 +39356,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>31</v>
@@ -39448,7 +39448,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>25</v>
@@ -39540,7 +39540,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>48</v>
@@ -39632,7 +39632,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>25</v>
@@ -39724,7 +39724,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>25</v>
@@ -39816,7 +39816,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>25</v>
@@ -39908,7 +39908,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>25</v>
@@ -40000,7 +40000,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>25</v>
@@ -40092,7 +40092,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>96</v>
@@ -40184,10 +40184,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>74</v>
@@ -40276,7 +40276,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>96</v>
@@ -40368,7 +40368,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>25</v>
@@ -40460,7 +40460,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>25</v>
@@ -40552,7 +40552,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>84</v>
@@ -40644,7 +40644,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>96</v>
@@ -40736,7 +40736,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>72</v>
@@ -40828,7 +40828,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>72</v>
@@ -40920,10 +40920,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>62</v>
@@ -41012,7 +41012,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>60</v>
@@ -41104,7 +41104,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>96</v>
@@ -41196,7 +41196,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>25</v>
@@ -41205,7 +41205,7 @@
         <v>31</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F419" s="4">
         <v>17</v>
@@ -41288,10 +41288,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>31</v>
@@ -41380,7 +41380,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>25</v>
@@ -41472,7 +41472,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>25</v>
@@ -41564,10 +41564,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>77</v>
@@ -41656,7 +41656,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>48</v>
@@ -41748,7 +41748,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>25</v>
@@ -41840,10 +41840,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>74</v>
@@ -41932,10 +41932,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>31</v>
@@ -42024,7 +42024,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>25</v>
@@ -42116,7 +42116,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>84</v>
@@ -42208,10 +42208,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>31</v>
@@ -42300,7 +42300,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>25</v>
@@ -42392,10 +42392,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>77</v>
@@ -42484,7 +42484,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>48</v>
@@ -42576,7 +42576,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>25</v>
@@ -42668,7 +42668,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>25</v>
@@ -42760,7 +42760,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>25</v>
@@ -42852,13 +42852,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>46</v>
@@ -42944,7 +42944,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>25</v>
@@ -43036,7 +43036,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>72</v>
@@ -43128,13 +43128,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C440" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>544</v>
-      </c>
       <c r="D440" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>69</v>
@@ -43220,7 +43220,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>25</v>
@@ -43312,7 +43312,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>25</v>
@@ -43404,7 +43404,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>25</v>
@@ -43496,10 +43496,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C444" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>31</v>
@@ -43588,7 +43588,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>25</v>
@@ -43680,7 +43680,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>25</v>
@@ -43772,7 +43772,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>25</v>
@@ -43864,10 +43864,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>31</v>
@@ -43956,10 +43956,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>74</v>
@@ -44048,7 +44048,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>96</v>
@@ -44140,7 +44140,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>36</v>
@@ -44232,7 +44232,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>25</v>
@@ -44324,10 +44324,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>62</v>
@@ -44414,7 +44414,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>60</v>
@@ -44506,7 +44506,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>51</v>
@@ -44598,7 +44598,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>25</v>
@@ -44690,7 +44690,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>25</v>
@@ -44782,7 +44782,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>25</v>
@@ -44874,16 +44874,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F459" s="4">
         <v>27</v>
@@ -44966,7 +44966,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>25</v>
@@ -45058,7 +45058,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>25</v>
@@ -45150,7 +45150,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>25</v>
@@ -45242,7 +45242,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>25</v>
@@ -45334,10 +45334,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>31</v>
@@ -45426,7 +45426,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>66</v>
@@ -45435,7 +45435,7 @@
         <v>62</v>
       </c>
       <c r="E465" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F465" s="4">
         <v>17</v>
@@ -45518,7 +45518,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>25</v>
@@ -45610,10 +45610,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>74</v>
@@ -45702,7 +45702,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>25</v>
@@ -45794,7 +45794,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>36</v>
@@ -45886,7 +45886,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>72</v>
@@ -45978,10 +45978,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>31</v>
@@ -46070,7 +46070,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>25</v>
@@ -46162,7 +46162,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>96</v>
@@ -46254,10 +46254,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>81</v>
@@ -46346,7 +46346,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>25</v>
@@ -46438,7 +46438,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>25</v>
@@ -46530,7 +46530,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>25</v>
@@ -46622,7 +46622,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>25</v>
@@ -46712,7 +46712,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>25</v>
@@ -46804,13 +46804,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>46</v>
@@ -46894,7 +46894,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>25</v>
@@ -46986,7 +46986,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>25</v>
@@ -47078,7 +47078,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>25</v>
@@ -47170,7 +47170,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>72</v>
@@ -47262,13 +47262,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>32</v>
@@ -47354,13 +47354,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>32</v>
@@ -47446,7 +47446,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>25</v>
@@ -47538,10 +47538,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>22</v>
@@ -47630,7 +47630,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>25</v>
@@ -47722,10 +47722,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>74</v>
@@ -47814,7 +47814,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>25</v>
@@ -47906,7 +47906,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>25</v>
@@ -47998,10 +47998,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>31</v>
@@ -48090,13 +48090,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>75</v>
@@ -48182,16 +48182,16 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E495" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F495" s="4">
         <v>20</v>
@@ -48274,7 +48274,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>25</v>
@@ -48366,7 +48366,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>25</v>
@@ -48458,10 +48458,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>22</v>
@@ -48550,7 +48550,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>96</v>
@@ -48642,7 +48642,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>86</v>
